--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cxcl5</t>
   </si>
   <si>
     <t>Cxcr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>304.327823709618</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H2">
-        <v>304.327823709618</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I2">
+        <v>0.9980732501448392</v>
+      </c>
+      <c r="J2">
+        <v>0.9980732501448393</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.040154</v>
+      </c>
+      <c r="N2">
+        <v>0.120462</v>
+      </c>
+      <c r="O2">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P2">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q2">
+        <v>12.82439188156667</v>
+      </c>
+      <c r="R2">
+        <v>115.4195269341</v>
+      </c>
+      <c r="S2">
+        <v>0.0001175125037067931</v>
+      </c>
+      <c r="T2">
+        <v>0.0001175125037067931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="G3">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H3">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I3">
+        <v>0.9980732501448392</v>
+      </c>
+      <c r="J3">
+        <v>0.9980732501448393</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N3">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P3">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q3">
+        <v>911.5191341979778</v>
+      </c>
+      <c r="R3">
+        <v>8203.672207781799</v>
+      </c>
+      <c r="S3">
+        <v>0.008352434690506914</v>
+      </c>
+      <c r="T3">
+        <v>0.008352434690506916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="G4">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H4">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I4">
+        <v>0.9980732501448392</v>
+      </c>
+      <c r="J4">
+        <v>0.9980732501448393</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.406132</v>
+      </c>
+      <c r="O4">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P4">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q4">
+        <v>43.23683753917778</v>
+      </c>
+      <c r="R4">
+        <v>389.1315378526</v>
+      </c>
+      <c r="S4">
+        <v>0.0003961879111707201</v>
+      </c>
+      <c r="T4">
+        <v>0.0003961879111707201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="G5">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H5">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I5">
+        <v>0.9980732501448392</v>
+      </c>
+      <c r="J5">
+        <v>0.9980732501448393</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>312.161971943165</v>
-      </c>
-      <c r="N2">
-        <v>312.161971943165</v>
-      </c>
-      <c r="O2">
+      <c r="M5">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N5">
+        <v>1014.035645</v>
+      </c>
+      <c r="O5">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P5">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q5">
+        <v>107954.296735545</v>
+      </c>
+      <c r="R5">
+        <v>971588.6706199048</v>
+      </c>
+      <c r="S5">
+        <v>0.9892071150394547</v>
+      </c>
+      <c r="T5">
+        <v>0.9892071150394549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.6165536666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.849661</v>
+      </c>
+      <c r="I6">
+        <v>0.001926749855160762</v>
+      </c>
+      <c r="J6">
+        <v>0.001926749855160763</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.040154</v>
+      </c>
+      <c r="N6">
+        <v>0.120462</v>
+      </c>
+      <c r="O6">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P6">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q6">
+        <v>0.02475709593133333</v>
+      </c>
+      <c r="R6">
+        <v>0.222813863382</v>
+      </c>
+      <c r="S6">
+        <v>2.26854290968909E-07</v>
+      </c>
+      <c r="T6">
+        <v>2.268542909689091E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>94999.57356636622</v>
-      </c>
-      <c r="R2">
-        <v>94999.57356636622</v>
-      </c>
-      <c r="S2">
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.6165536666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.849661</v>
+      </c>
+      <c r="I7">
+        <v>0.001926749855160762</v>
+      </c>
+      <c r="J7">
+        <v>0.001926749855160763</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P7">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q7">
+        <v>1.759659784026222</v>
+      </c>
+      <c r="R7">
+        <v>15.836938056236</v>
+      </c>
+      <c r="S7">
+        <v>1.612411947503704E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.612411947503705E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.6165536666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.849661</v>
+      </c>
+      <c r="I8">
+        <v>0.001926749855160762</v>
+      </c>
+      <c r="J8">
+        <v>0.001926749855160763</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.406132</v>
+      </c>
+      <c r="O8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q8">
+        <v>0.08346739125022222</v>
+      </c>
+      <c r="R8">
+        <v>0.7512065212519999</v>
+      </c>
+      <c r="S8">
+        <v>7.648286339242662E-07</v>
+      </c>
+      <c r="T8">
+        <v>7.648286339242665E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.6165536666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.849661</v>
+      </c>
+      <c r="I9">
+        <v>0.001926749855160762</v>
+      </c>
+      <c r="J9">
+        <v>0.001926749855160763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N9">
+        <v>1014.035645</v>
+      </c>
+      <c r="O9">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P9">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q9">
+        <v>208.4024650184828</v>
+      </c>
+      <c r="R9">
+        <v>1875.622185166345</v>
+      </c>
+      <c r="S9">
+        <v>0.001909634052760832</v>
+      </c>
+      <c r="T9">
+        <v>0.001909634052760832</v>
       </c>
     </row>
   </sheetData>
